--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="597">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T13:01:23+00:00</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Profil créé dans le cadre du ROR pour décrire les moyens qui peuvent être mis en œuvre pour réaliser la prestation</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -443,48 +443,63 @@
     <t>ror-location-status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-status}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-status}
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR pour indiquer si le lieu est opérationnel, fermé temporairement ou fermé définitivement.</t>
+  </si>
+  <si>
     <t>Location.extension:ror-location-equipement</t>
   </si>
   <si>
     <t>ror-location-equipement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-equipement}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipement}
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation.</t>
+  </si>
+  <si>
     <t>Location.extension:ror-residential-capacity</t>
   </si>
   <si>
     <t>ror-residential-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-residential-capacity}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-residential-capacity}
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR qui décrit un type d'habitation adapté à la réalisation d'une offre.</t>
+  </si>
+  <si>
     <t>Location.extension:ror-supported-capacity</t>
   </si>
   <si>
     <t>ror-supported-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-supported-capacity}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-supported-capacity}
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR qui indique une série d’enregistrements indiquant la quantité de lit (ou de place) de l'entité pour un statut et une temporalité donnés.</t>
+  </si>
+  <si>
     <t>Location.extension:ror-equipement-limit</t>
   </si>
   <si>
     <t>ror-equipement-limit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-equipement-limit}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-equipement-limit}
 </t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmis les équipements spécifiques de même type dans cette organisation.</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -965,18 +980,24 @@
     <t>ror-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR</t>
+  </si>
+  <si>
     <t>Location.telecom.extension:ror-telecom-usage</t>
   </si>
   <si>
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
     <t>Location.telecom.system</t>
@@ -1658,14 +1679,11 @@
     <t>ror-location-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-location-geolocation}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-geolocation}
 </t>
   </si>
   <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This        is the same co-ordinate system used in KML).</t>
-  </si>
-  <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence,        altitude, etc.</t>
+    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -2176,7 +2194,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3215,7 +3233,7 @@
         <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3289,13 +3307,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>72</v>
@@ -3317,13 +3335,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3397,13 +3415,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>72</v>
@@ -3425,13 +3443,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3505,13 +3523,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>72</v>
@@ -3533,13 +3551,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3613,13 +3631,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>72</v>
@@ -3641,13 +3659,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3721,14 +3739,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3750,16 +3768,16 @@
         <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>72</v>
@@ -3808,7 +3826,7 @@
         <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -3831,10 +3849,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3857,17 +3875,17 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>72</v>
@@ -3904,7 +3922,7 @@
         <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
@@ -3914,7 +3932,7 @@
         <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
@@ -3929,21 +3947,21 @@
         <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>72</v>
@@ -3965,17 +3983,17 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>72</v>
@@ -4024,7 +4042,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -4039,18 +4057,18 @@
         <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4073,13 +4091,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4130,7 +4148,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -4153,14 +4171,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4182,13 +4200,13 @@
         <v>128</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4238,7 +4256,7 @@
         <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -4261,10 +4279,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4290,16 +4308,16 @@
         <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -4324,13 +4342,13 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>72</v>
@@ -4348,7 +4366,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -4363,7 +4381,7 @@
         <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -4371,10 +4389,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4397,26 +4415,26 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>72</v>
@@ -4434,11 +4452,11 @@
         <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>72</v>
@@ -4456,7 +4474,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4471,7 +4489,7 @@
         <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>72</v>
@@ -4479,10 +4497,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4508,16 +4526,16 @@
         <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>72</v>
@@ -4530,7 +4548,7 @@
         <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>72</v>
@@ -4566,7 +4584,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4581,7 +4599,7 @@
         <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -4589,10 +4607,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4615,16 +4633,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4638,7 +4656,7 @@
         <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>72</v>
@@ -4674,7 +4692,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4689,7 +4707,7 @@
         <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4697,10 +4715,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4723,16 +4741,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4782,7 +4800,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4794,10 +4812,10 @@
         <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4805,10 +4823,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4831,16 +4849,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4890,7 +4908,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4902,10 +4920,10 @@
         <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4913,13 +4931,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>72</v>
@@ -4941,17 +4959,17 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
@@ -5000,7 +5018,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -5015,18 +5033,18 @@
         <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5049,13 +5067,13 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5106,7 +5124,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -5129,14 +5147,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5158,13 +5176,13 @@
         <v>128</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5214,7 +5232,7 @@
         <v>133</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -5237,10 +5255,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5266,16 +5284,16 @@
         <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -5300,13 +5318,13 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
@@ -5324,7 +5342,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -5339,7 +5357,7 @@
         <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5347,10 +5365,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5373,26 +5391,26 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>72</v>
@@ -5410,11 +5428,11 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -5432,7 +5450,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5447,7 +5465,7 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5455,10 +5473,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5484,16 +5502,16 @@
         <v>96</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>72</v>
@@ -5506,7 +5524,7 @@
         <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>72</v>
@@ -5542,7 +5560,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5557,7 +5575,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5565,10 +5583,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5591,16 +5609,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5614,7 +5632,7 @@
         <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>72</v>
@@ -5650,7 +5668,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5665,7 +5683,7 @@
         <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5673,10 +5691,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5699,16 +5717,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5758,7 +5776,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5770,10 +5788,10 @@
         <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5781,10 +5799,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5807,16 +5825,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5866,7 +5884,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5878,10 +5896,10 @@
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5889,10 +5907,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5918,13 +5936,13 @@
         <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5950,31 +5968,31 @@
         <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Z35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5989,18 +6007,18 @@
         <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6023,16 +6041,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6061,28 +6079,28 @@
         <v>107</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -6097,18 +6115,18 @@
         <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6131,16 +6149,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6190,7 +6208,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -6205,7 +6223,7 @@
         <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6213,10 +6231,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6239,19 +6257,19 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>72</v>
@@ -6300,7 +6318,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -6315,7 +6333,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6323,10 +6341,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6349,19 +6367,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -6410,7 +6428,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6425,7 +6443,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6433,10 +6451,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6462,16 +6480,16 @@
         <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -6496,31 +6514,31 @@
         <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Z40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6535,18 +6553,18 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6569,16 +6587,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6604,31 +6622,31 @@
         <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Z41" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6643,18 +6661,18 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6677,13 +6695,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6734,7 +6752,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6746,10 +6764,10 @@
         <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6757,10 +6775,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6783,13 +6801,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6840,7 +6858,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -6863,10 +6881,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6946,7 +6964,7 @@
         <v>133</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6969,13 +6987,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>72</v>
@@ -6997,13 +7015,13 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>129</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7054,7 +7072,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -7077,13 +7095,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>72</v>
@@ -7105,13 +7123,13 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>129</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7162,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -7185,10 +7203,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7214,13 +7232,13 @@
         <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7246,13 +7264,13 @@
         <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>72</v>
@@ -7270,7 +7288,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -7279,13 +7297,13 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7293,10 +7311,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7319,19 +7337,19 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7380,7 +7398,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -7395,7 +7413,7 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7403,10 +7421,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7432,16 +7450,16 @@
         <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>72</v>
@@ -7466,13 +7484,13 @@
         <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>72</v>
@@ -7490,7 +7508,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7505,7 +7523,7 @@
         <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7513,10 +7531,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7539,16 +7557,16 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7598,7 +7616,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7621,10 +7639,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7647,16 +7665,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7706,7 +7724,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7718,10 +7736,10 @@
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7729,10 +7747,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7755,19 +7773,19 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>72</v>
@@ -7816,7 +7834,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7831,7 +7849,7 @@
         <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7839,10 +7857,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7865,13 +7883,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7922,7 +7940,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7945,14 +7963,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7974,13 +7992,13 @@
         <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8030,7 +8048,7 @@
         <v>133</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -8053,13 +8071,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>72</v>
@@ -8081,13 +8099,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8138,7 +8156,7 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -8161,10 +8179,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8187,13 +8205,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8244,7 +8262,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -8267,10 +8285,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8350,7 +8368,7 @@
         <v>133</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -8373,10 +8391,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8402,13 +8420,13 @@
         <v>96</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8416,7 +8434,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>72</v>
@@ -8458,7 +8476,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8481,10 +8499,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8510,10 +8528,10 @@
         <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8540,13 +8558,13 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -8564,7 +8582,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8587,16 +8605,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8615,16 +8633,16 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8674,7 +8692,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8697,16 +8715,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8725,16 +8743,16 @@
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8784,7 +8802,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8807,10 +8825,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8836,16 +8854,16 @@
         <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>72</v>
@@ -8858,7 +8876,7 @@
         <v>72</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>72</v>
@@ -8870,13 +8888,13 @@
         <v>72</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>72</v>
@@ -8894,7 +8912,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -8909,7 +8927,7 @@
         <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -8917,10 +8935,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8946,13 +8964,13 @@
         <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8966,7 +8984,7 @@
         <v>72</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>72</v>
@@ -8978,13 +8996,13 @@
         <v>72</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -9002,7 +9020,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -9017,7 +9035,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9025,10 +9043,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9051,19 +9069,19 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -9076,7 +9094,7 @@
         <v>72</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>72</v>
@@ -9112,7 +9130,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -9127,7 +9145,7 @@
         <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9135,10 +9153,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9161,16 +9179,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9184,7 +9202,7 @@
         <v>72</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>72</v>
@@ -9220,7 +9238,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -9235,7 +9253,7 @@
         <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9243,10 +9261,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9269,13 +9287,13 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9326,7 +9344,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -9349,14 +9367,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9378,13 +9396,13 @@
         <v>128</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9434,7 +9452,7 @@
         <v>133</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9457,16 +9475,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9485,16 +9503,16 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9544,7 +9562,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9559,7 +9577,7 @@
         <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9567,16 +9585,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9595,16 +9613,16 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9654,7 +9672,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9669,7 +9687,7 @@
         <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9677,16 +9695,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9705,16 +9723,16 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9764,7 +9782,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -9779,7 +9797,7 @@
         <v>135</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9787,16 +9805,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9815,16 +9833,16 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9874,7 +9892,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9889,7 +9907,7 @@
         <v>135</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -9897,13 +9915,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>72</v>
@@ -9925,13 +9943,13 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9982,7 +10000,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9997,7 +10015,7 @@
         <v>135</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10005,10 +10023,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10031,13 +10049,13 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10088,7 +10106,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -10111,14 +10129,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10140,13 +10158,13 @@
         <v>128</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10196,7 +10214,7 @@
         <v>133</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -10219,10 +10237,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10248,13 +10266,13 @@
         <v>96</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10262,7 +10280,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>72</v>
@@ -10304,7 +10322,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10327,10 +10345,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10353,13 +10371,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10398,17 +10416,17 @@
         <v>72</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
@@ -10431,13 +10449,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>72</v>
@@ -10459,13 +10477,13 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10492,13 +10510,13 @@
         <v>72</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>72</v>
@@ -10516,7 +10534,7 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
@@ -10539,16 +10557,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10567,16 +10585,16 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10626,7 +10644,7 @@
         <v>72</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>73</v>
@@ -10641,7 +10659,7 @@
         <v>135</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10649,16 +10667,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10677,16 +10695,16 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10736,7 +10754,7 @@
         <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>73</v>
@@ -10751,7 +10769,7 @@
         <v>135</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10759,10 +10777,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10785,13 +10803,13 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10815,7 +10833,7 @@
         <v>72</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>72</v>
@@ -10842,7 +10860,7 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
@@ -10865,14 +10883,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10891,16 +10909,16 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10914,7 +10932,7 @@
         <v>72</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>72</v>
@@ -10950,7 +10968,7 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -10965,7 +10983,7 @@
         <v>93</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -10973,14 +10991,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10999,16 +11017,16 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11022,7 +11040,7 @@
         <v>72</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>72</v>
@@ -11058,7 +11076,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -11073,7 +11091,7 @@
         <v>93</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11081,14 +11099,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11107,16 +11125,16 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11166,7 +11184,7 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
@@ -11181,7 +11199,7 @@
         <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11189,14 +11207,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11215,16 +11233,16 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11238,7 +11256,7 @@
         <v>72</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>72</v>
@@ -11274,7 +11292,7 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -11289,7 +11307,7 @@
         <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11297,10 +11315,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11323,16 +11341,16 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11382,7 +11400,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11397,7 +11415,7 @@
         <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11405,10 +11423,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11431,19 +11449,19 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>72</v>
@@ -11456,7 +11474,7 @@
         <v>72</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>72</v>
@@ -11492,7 +11510,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11504,10 +11522,10 @@
         <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11515,10 +11533,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11541,19 +11559,19 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>72</v>
@@ -11578,13 +11596,13 @@
         <v>72</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>72</v>
@@ -11602,7 +11620,7 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11617,18 +11635,18 @@
         <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11651,17 +11669,17 @@
         <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>72</v>
@@ -11710,7 +11728,7 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
@@ -11725,7 +11743,7 @@
         <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11733,10 +11751,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11759,13 +11777,13 @@
         <v>72</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11816,7 +11834,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11839,10 +11857,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11922,7 +11940,7 @@
         <v>133</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -11945,13 +11963,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>72</v>
@@ -11973,16 +11991,16 @@
         <v>72</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12032,7 +12050,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
@@ -12055,14 +12073,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12084,16 +12102,16 @@
         <v>128</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>72</v>
@@ -12142,7 +12160,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -12165,10 +12183,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12191,16 +12209,16 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12250,7 +12268,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -12265,7 +12283,7 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12273,10 +12291,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12299,16 +12317,16 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12358,7 +12376,7 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -12373,7 +12391,7 @@
         <v>93</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12381,10 +12399,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12407,16 +12425,16 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12466,7 +12484,7 @@
         <v>72</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>73</v>
@@ -12481,7 +12499,7 @@
         <v>93</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12489,10 +12507,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12515,19 +12533,19 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>72</v>
@@ -12576,7 +12594,7 @@
         <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12588,10 +12606,10 @@
         <v>92</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12599,10 +12617,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12625,19 +12643,19 @@
         <v>72</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>72</v>
@@ -12686,7 +12704,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12698,10 +12716,10 @@
         <v>92</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -12709,10 +12727,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12735,16 +12753,16 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12794,7 +12812,7 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>73</v>
@@ -12809,7 +12827,7 @@
         <v>93</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12817,10 +12835,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12843,13 +12861,13 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12900,7 +12918,7 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
@@ -12923,14 +12941,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -12952,13 +12970,13 @@
         <v>128</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13008,7 +13026,7 @@
         <v>133</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
@@ -13031,14 +13049,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13060,16 +13078,16 @@
         <v>128</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>72</v>
@@ -13118,7 +13136,7 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
@@ -13141,10 +13159,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13170,13 +13188,13 @@
         <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13202,13 +13220,13 @@
         <v>72</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>72</v>
@@ -13226,7 +13244,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13241,7 +13259,7 @@
         <v>93</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13249,10 +13267,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13275,13 +13293,13 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13332,7 +13350,7 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
@@ -13347,7 +13365,7 @@
         <v>93</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13355,10 +13373,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13381,13 +13399,13 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13438,7 +13456,7 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
@@ -13453,7 +13471,7 @@
         <v>93</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13461,10 +13479,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13487,13 +13505,13 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13544,7 +13562,7 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
@@ -13559,7 +13577,7 @@
         <v>93</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13567,10 +13585,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13593,16 +13611,16 @@
         <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13652,7 +13670,7 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13675,10 +13693,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13701,19 +13719,19 @@
         <v>72</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>72</v>
@@ -13762,7 +13780,7 @@
         <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
@@ -13774,10 +13792,10 @@
         <v>92</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>

--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -581,9 +581,6 @@
     <t>Location.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -606,56 +603,69 @@
     <t>Extension créée dans le cadre du ROR pour indiquer si le lieu est opérationnel, fermé temporairement ou fermé définitivement.</t>
   </si>
   <si>
-    <t>Location.extension:ror-location-equipement</t>
-  </si>
-  <si>
-    <t>ror-location-equipement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipement}
+    <t>Location.extension:ror-location-equipment</t>
+  </si>
+  <si>
+    <t>ror-location-equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipment}
 </t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation.</t>
   </si>
   <si>
-    <t>Location.extension:ror-residential-capacity</t>
-  </si>
-  <si>
-    <t>ror-residential-capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-residential-capacity}
+    <t>Location.extension:ror-location-residential-capacity</t>
+  </si>
+  <si>
+    <t>ror-location-residential-capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-residential-capacity}
 </t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui décrit un type d'habitation adapté à la réalisation d'une offre.</t>
   </si>
   <si>
-    <t>Location.extension:ror-supported-capacity</t>
-  </si>
-  <si>
-    <t>ror-supported-capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-supported-capacity}
+    <t>Location.extension:ror-location-supported-capacity</t>
+  </si>
+  <si>
+    <t>ror-location-supported-capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-supported-capacity}
 </t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui indique une série d’enregistrements indiquant la quantité de lit (ou de place) de l'entité pour un statut et une temporalité donnés.</t>
   </si>
   <si>
-    <t>Location.extension:ror-equipement-limit</t>
-  </si>
-  <si>
-    <t>ror-equipement-limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-equipement-limit}
+    <t>Location.extension:ror-location-equipment-limit</t>
+  </si>
+  <si>
+    <t>ror-location-equipment-limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipment-limit}
 </t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmis les équipements spécifiques de même type dans cette organisation.</t>
+  </si>
+  <si>
+    <t>Location.extension:ror-location-commune-cog</t>
+  </si>
+  <si>
+    <t>ror-location-commune-cog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-commune-cog}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -894,22 +904,22 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>Location.identifier:identifiant</t>
-  </si>
-  <si>
-    <t>identifiant</t>
-  </si>
-  <si>
-    <t>Location.identifier:identifiant.id</t>
-  </si>
-  <si>
-    <t>Location.identifier:identifiant.extension</t>
-  </si>
-  <si>
-    <t>Location.identifier:identifiant.use</t>
-  </si>
-  <si>
-    <t>Location.identifier:identifiant.type</t>
+    <t>Location.identifier:idLocation</t>
+  </si>
+  <si>
+    <t>idLocation</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.id</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.use</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -920,16 +930,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Location.identifier:identifiant.system</t>
-  </si>
-  <si>
-    <t>Location.identifier:identifiant.value</t>
-  </si>
-  <si>
-    <t>Location.identifier:identifiant.period</t>
-  </si>
-  <si>
-    <t>Location.identifier:identifiant.assigner</t>
+    <t>Location.identifier:idLocation.system</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.value</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.period</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.assigner</t>
   </si>
   <si>
     <t>Location.status</t>
@@ -1056,7 +1066,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J198-FonctionLieu-ROR/FHIR/JDV-J198-FonctionLieu-ROR</t>
   </si>
   <si>
     <t>.code</t>
@@ -1088,17 +1098,7 @@
     <t>Location.telecom.extension</t>
   </si>
   <si>
-    <t>Location.telecom.extension:ror-confidentiality-level</t>
-  </si>
-  <si>
-    <t>ror-confidentiality-level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-confidentiality-level}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>2</t>
   </si>
   <si>
     <t>Location.telecom.extension:ror-telecom-usage</t>
@@ -1112,6 +1112,32 @@
   </si>
   <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
+    <t>Location.telecom.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
+  </si>
+  <si>
+    <t>Location.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
   </si>
   <si>
     <t>Location.telecom.system</t>
@@ -1797,7 +1823,7 @@
 </t>
   </si>
   <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
+    <t>Geolocation</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -2289,7 +2315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL115"/>
+  <dimension ref="A1:AL117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2300,7 +2326,7 @@
   <cols>
     <col min="1" max="1" width="65.2265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2308,7 +2334,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2572,7 +2598,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>80</v>
@@ -4078,7 +4104,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -4096,10 +4122,10 @@
         <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4150,7 +4176,7 @@
         <v>109</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -4173,13 +4199,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>72</v>
@@ -4201,13 +4227,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4258,7 +4284,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -4281,13 +4307,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>72</v>
@@ -4297,7 +4323,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -4309,13 +4335,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4366,7 +4392,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -4389,13 +4415,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>72</v>
@@ -4417,13 +4443,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4474,7 +4500,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -4497,23 +4523,23 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -4525,13 +4551,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4582,7 +4608,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4605,23 +4631,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>181</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -4633,13 +4659,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4690,7 +4716,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4713,46 +4739,44 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>72</v>
       </c>
@@ -4788,19 +4812,19 @@
         <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4815,7 +4839,7 @@
         <v>111</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4823,14 +4847,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4843,23 +4867,25 @@
         <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -4896,9 +4922,11 @@
         <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>72</v>
       </c>
@@ -4906,7 +4934,7 @@
         <v>109</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4918,25 +4946,23 @@
         <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>72</v>
       </c>
@@ -4945,7 +4971,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -4957,17 +4983,17 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>72</v>
@@ -5004,19 +5030,17 @@
         <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -5031,20 +5055,22 @@
         <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>72</v>
       </c>
@@ -5062,19 +5088,21 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>98</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
       </c>
@@ -5122,44 +5150,44 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>72</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -5171,17 +5199,15 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -5218,34 +5244,34 @@
         <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -5253,46 +5279,44 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>72</v>
       </c>
@@ -5316,46 +5340,46 @@
         <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -5363,10 +5387,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5374,7 +5398,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5383,32 +5407,32 @@
         <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>72</v>
@@ -5428,9 +5452,11 @@
       <c r="X29" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
@@ -5448,7 +5474,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -5463,7 +5489,7 @@
         <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5471,10 +5497,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5482,7 +5508,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5497,32 +5523,32 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>72</v>
@@ -5534,13 +5560,11 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -5558,7 +5582,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5573,7 +5597,7 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5581,10 +5605,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5607,18 +5631,20 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>72</v>
       </c>
@@ -5630,7 +5656,7 @@
         <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>72</v>
@@ -5666,7 +5692,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5681,7 +5707,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5689,10 +5715,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5715,16 +5741,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5738,7 +5764,7 @@
         <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>72</v>
@@ -5774,7 +5800,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5786,10 +5812,10 @@
         <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5797,10 +5823,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5823,16 +5849,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5882,7 +5908,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5894,10 +5920,10 @@
         <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5905,14 +5931,12 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>72</v>
       </c>
@@ -5933,18 +5957,18 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>72</v>
       </c>
@@ -5992,35 +6016,37 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>72</v>
       </c>
@@ -6038,19 +6064,21 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>98</v>
+        <v>217</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>72</v>
       </c>
@@ -6098,44 +6126,44 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>72</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -6147,17 +6175,15 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>72</v>
@@ -6194,34 +6220,34 @@
         <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -6229,46 +6255,44 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>72</v>
       </c>
@@ -6292,46 +6316,46 @@
         <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6339,10 +6363,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6350,7 +6374,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6359,32 +6383,32 @@
         <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>72</v>
@@ -6404,9 +6428,11 @@
       <c r="X38" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y38" s="2"/>
+      <c r="Y38" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>72</v>
@@ -6424,7 +6450,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -6439,7 +6465,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6447,10 +6473,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6458,7 +6484,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6473,32 +6499,32 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>72</v>
@@ -6510,13 +6536,11 @@
         <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>72</v>
@@ -6534,7 +6558,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6549,7 +6573,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6557,10 +6581,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6583,18 +6607,20 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
       </c>
@@ -6606,7 +6632,7 @@
         <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>72</v>
@@ -6642,7 +6668,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6657,7 +6683,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6665,10 +6691,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6691,16 +6717,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6714,7 +6740,7 @@
         <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>72</v>
@@ -6750,7 +6776,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6762,10 +6788,10 @@
         <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6773,10 +6799,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6799,16 +6825,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6858,7 +6884,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6870,10 +6896,10 @@
         <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6881,10 +6907,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6901,22 +6927,22 @@
         <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6942,13 +6968,13 @@
         <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>72</v>
@@ -6966,7 +6992,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -6978,21 +7004,21 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>298</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7009,22 +7035,22 @@
         <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7050,13 +7076,13 @@
         <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>72</v>
@@ -7074,7 +7100,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -7089,18 +7115,18 @@
         <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7123,16 +7149,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7158,13 +7184,13 @@
         <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>72</v>
@@ -7182,7 +7208,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -7197,18 +7223,18 @@
         <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>72</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7219,7 +7245,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -7228,23 +7254,21 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>72</v>
       </c>
@@ -7292,13 +7316,13 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>92</v>
@@ -7307,7 +7331,7 @@
         <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -7315,10 +7339,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7329,7 +7353,7 @@
         <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>72</v>
@@ -7338,22 +7362,22 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
@@ -7402,13 +7426,13 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>92</v>
@@ -7417,7 +7441,7 @@
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7425,10 +7449,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7451,19 +7475,19 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7488,13 +7512,13 @@
         <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>72</v>
@@ -7512,7 +7536,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -7527,18 +7551,18 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7549,7 +7573,7 @@
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>72</v>
@@ -7561,18 +7585,20 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>72</v>
       </c>
@@ -7596,13 +7622,13 @@
         <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>72</v>
@@ -7620,13 +7646,13 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>92</v>
@@ -7635,18 +7661,18 @@
         <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7657,7 +7683,7 @@
         <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>72</v>
@@ -7666,18 +7692,20 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -7702,13 +7730,11 @@
         <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>72</v>
@@ -7726,7 +7752,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7738,21 +7764,21 @@
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>338</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7775,13 +7801,13 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>96</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>97</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7832,22 +7858,22 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>99</v>
+        <v>337</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>72</v>
+        <v>341</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7855,10 +7881,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7866,10 +7892,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -7881,13 +7907,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7926,34 +7952,34 @@
         <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7961,23 +7987,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -7989,13 +8013,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8034,16 +8058,16 @@
         <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>110</v>
@@ -8072,7 +8096,7 @@
         <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>347</v>
@@ -8100,7 +8124,7 @@
         <v>348</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>349</v>
@@ -8180,9 +8204,11 @@
         <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>72</v>
       </c>
@@ -8200,20 +8226,18 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>182</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>72</v>
@@ -8238,13 +8262,13 @@
         <v>72</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>354</v>
+        <v>72</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>72</v>
@@ -8262,22 +8286,22 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8285,12 +8309,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>72</v>
       </c>
@@ -8308,23 +8334,19 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>72</v>
       </c>
@@ -8372,22 +8394,22 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>363</v>
+        <v>110</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>72</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -8395,10 +8417,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8415,7 +8437,7 @@
         <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>81</v>
@@ -8424,17 +8446,15 @@
         <v>158</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>72</v>
       </c>
@@ -8461,10 +8481,10 @@
         <v>149</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>72</v>
@@ -8482,7 +8502,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -8491,13 +8511,13 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8505,10 +8525,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8516,7 +8536,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8531,18 +8551,20 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>375</v>
+        <v>96</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>72</v>
       </c>
@@ -8590,7 +8612,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8605,7 +8627,7 @@
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>100</v>
+        <v>372</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8613,10 +8635,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8633,24 +8655,26 @@
         <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>72</v>
       </c>
@@ -8674,13 +8698,13 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -8698,7 +8722,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8710,10 +8734,10 @@
         <v>92</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8721,10 +8745,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8744,23 +8768,21 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>72</v>
       </c>
@@ -8808,7 +8830,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8823,7 +8845,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>391</v>
+        <v>100</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8831,10 +8853,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8854,18 +8876,20 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>97</v>
+        <v>389</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>72</v>
@@ -8914,7 +8938,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8923,13 +8947,13 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>100</v>
+        <v>392</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8944,14 +8968,14 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>72</v>
@@ -8963,18 +8987,20 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>394</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>104</v>
+        <v>395</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
+        <v>396</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
@@ -9010,34 +9036,34 @@
         <v>72</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>110</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9045,14 +9071,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>72</v>
       </c>
@@ -9073,13 +9097,13 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>97</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>98</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9130,22 +9154,22 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9153,21 +9177,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>72</v>
@@ -9179,15 +9203,17 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -9224,34 +9250,34 @@
         <v>72</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9259,12 +9285,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="B65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>72</v>
       </c>
@@ -9273,7 +9301,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -9285,13 +9313,13 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>184</v>
+        <v>406</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9330,16 +9358,16 @@
         <v>72</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>110</v>
@@ -9357,7 +9385,7 @@
         <v>111</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9365,10 +9393,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9376,7 +9404,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9391,24 +9419,22 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>408</v>
+        <v>72</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>72</v>
@@ -9450,10 +9476,10 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>409</v>
+        <v>99</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9465,7 +9491,7 @@
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9473,10 +9499,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9487,7 +9513,7 @@
         <v>73</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>72</v>
@@ -9499,13 +9525,13 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>412</v>
+        <v>182</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>413</v>
+        <v>183</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9532,46 +9558,46 @@
         <v>72</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>414</v>
+        <v>72</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>416</v>
+        <v>110</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9579,20 +9605,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -9607,16 +9631,16 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>106</v>
+        <v>415</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9624,7 +9648,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>72</v>
+        <v>416</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>72</v>
@@ -9666,19 +9690,19 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>94</v>
@@ -9689,16 +9713,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9717,17 +9739,15 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>422</v>
+        <v>158</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>72</v>
@@ -9752,13 +9772,13 @@
         <v>72</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>72</v>
@@ -9776,19 +9796,19 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>110</v>
+        <v>424</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>94</v>
@@ -9799,14 +9819,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="D70" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9819,26 +9841,24 @@
         <v>72</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>72</v>
       </c>
@@ -9850,7 +9870,7 @@
         <v>72</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>428</v>
+        <v>72</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>72</v>
@@ -9862,13 +9882,13 @@
         <v>72</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>429</v>
+        <v>72</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>430</v>
+        <v>72</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -9886,22 +9906,22 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>431</v>
+        <v>110</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>373</v>
+        <v>94</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9909,14 +9929,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="D71" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9932,19 +9954,19 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>435</v>
+        <v>106</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9958,7 +9980,7 @@
         <v>72</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>72</v>
@@ -9970,13 +9992,13 @@
         <v>72</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>437</v>
+        <v>72</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>438</v>
+        <v>72</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>72</v>
@@ -9994,22 +10016,22 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>439</v>
+        <v>110</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>373</v>
+        <v>94</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10017,10 +10039,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10037,25 +10059,25 @@
         <v>72</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>72</v>
@@ -10068,7 +10090,7 @@
         <v>72</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>72</v>
@@ -10080,13 +10102,13 @@
         <v>72</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>72</v>
+        <v>437</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>72</v>
+        <v>438</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -10104,7 +10126,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -10119,7 +10141,7 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10127,10 +10149,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10141,7 +10163,7 @@
         <v>73</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>72</v>
@@ -10153,16 +10175,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>294</v>
+        <v>443</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10176,7 +10198,7 @@
         <v>72</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>72</v>
@@ -10188,13 +10210,13 @@
         <v>72</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>72</v>
+        <v>445</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>72</v>
@@ -10212,13 +10234,13 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>92</v>
@@ -10227,7 +10249,7 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>453</v>
+        <v>381</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -10235,10 +10257,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10258,19 +10280,23 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>97</v>
+        <v>449</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>72</v>
       </c>
@@ -10282,7 +10308,7 @@
         <v>72</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>72</v>
@@ -10318,7 +10344,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>99</v>
+        <v>454</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -10327,13 +10353,13 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>100</v>
+        <v>455</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10341,14 +10367,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10364,19 +10390,19 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10390,7 +10416,7 @@
         <v>72</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>72</v>
+        <v>459</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>72</v>
@@ -10414,19 +10440,19 @@
         <v>72</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -10438,10 +10464,10 @@
         <v>92</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>94</v>
+        <v>461</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10449,23 +10475,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10477,17 +10501,15 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>458</v>
+        <v>96</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>457</v>
+        <v>97</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>72</v>
@@ -10536,22 +10558,22 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>460</v>
+        <v>100</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10559,14 +10581,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>102</v>
       </c>
@@ -10587,13 +10607,13 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>464</v>
+        <v>105</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>106</v>
@@ -10634,16 +10654,16 @@
         <v>72</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>110</v>
@@ -10661,7 +10681,7 @@
         <v>111</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>465</v>
+        <v>94</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10669,13 +10689,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>102</v>
@@ -10697,13 +10717,13 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>106</v>
@@ -10771,7 +10791,7 @@
         <v>111</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10779,13 +10799,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>102</v>
@@ -10807,13 +10827,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>106</v>
@@ -10881,7 +10901,7 @@
         <v>111</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10889,16 +10909,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10917,15 +10937,17 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>72</v>
@@ -10989,7 +11011,7 @@
         <v>111</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -10997,21 +11019,23 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="D81" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>72</v>
@@ -11023,15 +11047,17 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>96</v>
+        <v>481</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>97</v>
+        <v>480</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>72</v>
@@ -11080,22 +11106,22 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>100</v>
+        <v>483</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11103,14 +11129,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11129,17 +11157,15 @@
         <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>486</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>104</v>
+        <v>485</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>72</v>
@@ -11176,16 +11202,16 @@
         <v>72</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>110</v>
@@ -11203,7 +11229,7 @@
         <v>111</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>488</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11211,10 +11237,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11222,7 +11248,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
@@ -11237,24 +11263,22 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>487</v>
+        <v>72</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>72</v>
@@ -11296,10 +11320,10 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>409</v>
+        <v>99</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>80</v>
@@ -11311,7 +11335,7 @@
         <v>72</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11319,21 +11343,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>72</v>
@@ -11345,15 +11369,17 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>72</v>
@@ -11390,29 +11416,31 @@
         <v>72</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AC84" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AD84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>491</v>
+        <v>109</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>416</v>
+        <v>110</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>94</v>
@@ -11423,14 +11451,12 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>72</v>
       </c>
@@ -11451,22 +11477,24 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>72</v>
+        <v>495</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>72</v>
@@ -11484,13 +11512,13 @@
         <v>72</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>494</v>
+        <v>72</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>72</v>
@@ -11508,19 +11536,19 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>94</v>
@@ -11534,20 +11562,18 @@
         <v>496</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C86" t="s" s="2">
         <v>497</v>
       </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>72</v>
@@ -11559,17 +11585,15 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>498</v>
+        <v>96</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
@@ -11606,34 +11630,32 @@
         <v>72</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="AC86" s="2"/>
       <c r="AD86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>110</v>
+        <v>424</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>501</v>
+        <v>94</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11641,23 +11663,23 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>72</v>
@@ -11669,17 +11691,15 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>504</v>
+        <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>72</v>
@@ -11704,13 +11724,13 @@
         <v>72</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>72</v>
+        <v>502</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>72</v>
+        <v>503</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>72</v>
@@ -11728,22 +11748,22 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>110</v>
+        <v>424</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>506</v>
+        <v>94</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11751,21 +11771,23 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>72</v>
@@ -11777,15 +11799,17 @@
         <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>96</v>
+        <v>506</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>72</v>
@@ -11807,49 +11831,49 @@
         <v>72</v>
       </c>
       <c r="W88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11857,21 +11881,23 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="B89" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>512</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>72</v>
@@ -11880,19 +11906,19 @@
         <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>96</v>
+        <v>512</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>294</v>
+        <v>106</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11906,7 +11932,7 @@
         <v>72</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>515</v>
+        <v>72</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>72</v>
@@ -11942,22 +11968,22 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>516</v>
+        <v>110</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11965,14 +11991,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>519</v>
+        <v>72</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11988,20 +12014,18 @@
         <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>72</v>
@@ -12014,7 +12038,7 @@
         <v>72</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>523</v>
+        <v>72</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>72</v>
@@ -12023,7 +12047,7 @@
         <v>72</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>72</v>
+        <v>517</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>72</v>
@@ -12050,7 +12074,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -12059,13 +12083,13 @@
         <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>525</v>
+        <v>72</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12073,14 +12097,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12102,13 +12126,13 @@
         <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12122,7 +12146,7 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>72</v>
+        <v>523</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>72</v>
@@ -12158,7 +12182,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
@@ -12173,7 +12197,7 @@
         <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12181,14 +12205,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12210,13 +12234,13 @@
         <v>96</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>294</v>
+        <v>530</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12230,7 +12254,7 @@
         <v>72</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>72</v>
@@ -12266,7 +12290,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -12281,7 +12305,7 @@
         <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12289,14 +12313,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>72</v>
+        <v>535</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12318,13 +12342,13 @@
         <v>96</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>542</v>
+        <v>297</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12374,7 +12398,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
@@ -12389,7 +12413,7 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12397,14 +12421,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>72</v>
+        <v>541</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12423,20 +12447,18 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>72</v>
       </c>
@@ -12448,7 +12470,7 @@
         <v>72</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>72</v>
@@ -12484,7 +12506,7 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
@@ -12496,10 +12518,10 @@
         <v>92</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>384</v>
+        <v>546</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12507,10 +12529,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12533,20 +12555,18 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>72</v>
       </c>
@@ -12570,13 +12590,13 @@
         <v>72</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>555</v>
+        <v>72</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>557</v>
+        <v>72</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>72</v>
@@ -12609,18 +12629,18 @@
         <v>93</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12640,20 +12660,22 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>560</v>
+        <v>267</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O96" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>72</v>
@@ -12666,7 +12688,7 @@
         <v>72</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>72</v>
+        <v>557</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>72</v>
@@ -12702,7 +12724,7 @@
         <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12714,10 +12736,10 @@
         <v>92</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>564</v>
+        <v>392</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12725,10 +12747,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12748,19 +12770,23 @@
         <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>97</v>
+        <v>560</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>72</v>
       </c>
@@ -12784,13 +12810,13 @@
         <v>72</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>72</v>
+        <v>563</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>72</v>
+        <v>564</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>72</v>
+        <v>565</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>72</v>
@@ -12808,7 +12834,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>99</v>
+        <v>559</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12817,24 +12843,24 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>100</v>
+        <v>566</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12842,10 +12868,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>72</v>
@@ -12857,16 +12883,18 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>103</v>
+        <v>568</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>183</v>
+        <v>569</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>72</v>
       </c>
@@ -12902,34 +12930,34 @@
         <v>72</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>110</v>
+        <v>567</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>72</v>
+        <v>572</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12937,23 +12965,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>72</v>
@@ -12965,17 +12991,15 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>569</v>
+        <v>96</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>561</v>
+        <v>97</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>72</v>
@@ -13024,22 +13048,22 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13047,18 +13071,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>572</v>
+        <v>72</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>74</v>
@@ -13067,26 +13091,22 @@
         <v>72</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>573</v>
+        <v>182</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>72</v>
       </c>
@@ -13122,19 +13142,19 @@
         <v>72</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>575</v>
+        <v>110</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
@@ -13149,7 +13169,7 @@
         <v>111</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13157,12 +13177,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="B101" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>72</v>
       </c>
@@ -13171,7 +13193,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>72</v>
@@ -13189,11 +13211,9 @@
         <v>578</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>72</v>
@@ -13242,22 +13262,22 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>576</v>
+        <v>110</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>581</v>
+        <v>72</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13265,44 +13285,46 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>577</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>72</v>
       </c>
@@ -13350,22 +13372,22 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>581</v>
+        <v>94</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13373,10 +13395,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13384,7 +13406,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
@@ -13399,7 +13421,7 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>586</v>
@@ -13408,7 +13430,7 @@
         <v>587</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13458,10 +13480,10 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>80</v>
@@ -13473,7 +13495,7 @@
         <v>93</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13481,10 +13503,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13492,7 +13514,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
@@ -13504,23 +13526,21 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>273</v>
+        <v>585</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>72</v>
       </c>
@@ -13568,10 +13588,10 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>80</v>
@@ -13580,10 +13600,10 @@
         <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13591,10 +13611,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13617,20 +13637,18 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L105" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="N105" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>72</v>
       </c>
@@ -13678,7 +13696,7 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
@@ -13690,10 +13708,10 @@
         <v>92</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13701,10 +13719,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13715,7 +13733,7 @@
         <v>73</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>72</v>
@@ -13724,21 +13742,23 @@
         <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>560</v>
+        <v>276</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>72</v>
       </c>
@@ -13786,22 +13806,22 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>93</v>
+        <v>281</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -13809,10 +13829,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13835,16 +13855,20 @@
         <v>72</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>96</v>
+        <v>603</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>97</v>
+        <v>604</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>72</v>
       </c>
@@ -13892,7 +13916,7 @@
         <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>99</v>
+        <v>602</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
@@ -13901,13 +13925,13 @@
         <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>100</v>
+        <v>608</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -13915,14 +13939,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -13941,16 +13965,16 @@
         <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>103</v>
+        <v>568</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>104</v>
+        <v>610</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>105</v>
+        <v>611</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>106</v>
+        <v>612</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -13988,19 +14012,19 @@
         <v>72</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>110</v>
+        <v>609</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
@@ -14012,10 +14036,10 @@
         <v>92</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>94</v>
+        <v>613</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14023,46 +14047,42 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>572</v>
+        <v>72</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>573</v>
+        <v>97</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>72</v>
       </c>
@@ -14110,22 +14130,22 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>575</v>
+        <v>99</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14133,14 +14153,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14159,16 +14179,16 @@
         <v>72</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>610</v>
+        <v>104</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>611</v>
+        <v>105</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>294</v>
+        <v>106</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14194,31 +14214,31 @@
         <v>72</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>612</v>
+        <v>72</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>613</v>
+        <v>72</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>609</v>
+        <v>110</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -14230,10 +14250,10 @@
         <v>92</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>605</v>
+        <v>94</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14241,42 +14261,46 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>615</v>
+        <v>103</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>72</v>
       </c>
@@ -14324,22 +14348,22 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>605</v>
+        <v>94</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14347,10 +14371,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14361,7 +14385,7 @@
         <v>73</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>72</v>
@@ -14373,15 +14397,17 @@
         <v>72</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L112" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>72</v>
@@ -14406,13 +14432,13 @@
         <v>72</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>72</v>
+        <v>620</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>72</v>
+        <v>621</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>72</v>
@@ -14430,13 +14456,13 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>92</v>
@@ -14445,7 +14471,7 @@
         <v>93</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14479,13 +14505,13 @@
         <v>72</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14551,7 +14577,7 @@
         <v>93</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -14559,10 +14585,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14585,17 +14611,15 @@
         <v>72</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>96</v>
+        <v>627</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>72</v>
@@ -14644,7 +14668,7 @@
         <v>72</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>73</v>
@@ -14659,7 +14683,7 @@
         <v>93</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>100</v>
+        <v>613</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>72</v>
@@ -14667,10 +14691,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14681,7 +14705,7 @@
         <v>73</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>72</v>
@@ -14693,20 +14717,16 @@
         <v>72</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O115" t="s" s="2">
         <v>632</v>
       </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>72</v>
       </c>
@@ -14754,24 +14774,242 @@
         <v>72</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AL115" t="s" s="2">
+      <c r="B116" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AL117" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -477,13 +477,31 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Slicing pour gérer le code région définissant la région source des données</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Location.meta.tag:codeRegion</t>
+  </si>
+  <si>
+    <t>codeRegion</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
   </si>
   <si>
     <t>Location.implicitRules</t>
@@ -596,7 +614,7 @@
     <t>ror-location-status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-status}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-status}
 </t>
   </si>
   <si>
@@ -609,7 +627,7 @@
     <t>ror-location-equipment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-equipment}
 </t>
   </si>
   <si>
@@ -622,7 +640,7 @@
     <t>ror-location-residential-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-residential-capacity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-residential-capacity}
 </t>
   </si>
   <si>
@@ -635,7 +653,7 @@
     <t>ror-location-supported-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-supported-capacity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-supported-capacity}
 </t>
   </si>
   <si>
@@ -648,11 +666,11 @@
     <t>ror-location-equipment-limit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-equipment-limit}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-equipment-limit}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmis les équipements spécifiques de même type dans cette organisation.</t>
+    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation.</t>
   </si>
   <si>
     <t>Location.extension:ror-location-commune-cog</t>
@@ -661,7 +679,7 @@
     <t>ror-location-commune-cog</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-commune-cog}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-commune-cog}
 </t>
   </si>
   <si>
@@ -1107,7 +1125,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1120,7 +1138,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1133,7 +1151,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -1776,9 +1794,6 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Physical form of the location.</t>
   </si>
   <si>
@@ -1819,11 +1834,8 @@
     <t>ror-location-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-geolocation}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-geolocation}
 </t>
-  </si>
-  <si>
-    <t>Geolocation</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -2315,7 +2327,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL117"/>
+  <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2334,7 +2346,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2348,11 +2360,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="90.5234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3618,27 +3630,29 @@
       <c r="X12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y12" s="2"/>
+      <c r="Y12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -3661,12 +3675,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>72</v>
       </c>
@@ -3681,22 +3697,22 @@
         <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3722,13 +3738,11 @@
         <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>72</v>
@@ -3746,13 +3760,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>92</v>
@@ -3761,7 +3775,7 @@
         <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>72</v>
@@ -3769,10 +3783,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3789,13 +3803,13 @@
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>159</v>
@@ -3830,31 +3844,31 @@
         <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
@@ -3877,14 +3891,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3903,16 +3917,16 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3938,13 +3952,13 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>72</v>
@@ -3962,7 +3976,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -3977,7 +3991,7 @@
         <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3985,21 +3999,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -4011,16 +4025,16 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4070,22 +4084,22 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -4093,18 +4107,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -4119,15 +4133,17 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>72</v>
@@ -4164,19 +4180,19 @@
         <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -4185,13 +4201,13 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>72</v>
@@ -4199,23 +4215,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -4227,13 +4241,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4272,19 +4286,19 @@
         <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -4307,13 +4321,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>72</v>
@@ -4323,7 +4337,7 @@
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -4335,13 +4349,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4392,7 +4406,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -4415,13 +4429,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>72</v>
@@ -4443,13 +4457,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4500,7 +4514,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -4523,13 +4537,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>72</v>
@@ -4551,13 +4565,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4608,7 +4622,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4631,13 +4645,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>72</v>
@@ -4659,13 +4673,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4716,7 +4730,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4739,23 +4753,23 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -4767,13 +4781,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4824,7 +4838,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4847,46 +4861,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>72</v>
       </c>
@@ -4922,19 +4934,19 @@
         <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -4949,7 +4961,7 @@
         <v>111</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4957,14 +4969,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4977,13 +4989,13 @@
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>216</v>
@@ -4991,7 +5003,9 @@
       <c r="M25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>218</v>
       </c>
@@ -5030,9 +5044,11 @@
         <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>72</v>
       </c>
@@ -5040,7 +5056,7 @@
         <v>109</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -5052,25 +5068,23 @@
         <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>72</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>72</v>
@@ -5091,17 +5105,17 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
@@ -5138,19 +5152,17 @@
         <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -5165,20 +5177,22 @@
         <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>72</v>
       </c>
@@ -5196,19 +5210,21 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>72</v>
       </c>
@@ -5256,44 +5272,44 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>72</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -5305,17 +5321,15 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>72</v>
@@ -5352,34 +5366,34 @@
         <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -5387,46 +5401,44 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
       </c>
@@ -5450,46 +5462,46 @@
         <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5497,10 +5509,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5508,7 +5520,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5517,32 +5529,32 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>72</v>
@@ -5560,11 +5572,13 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -5582,7 +5596,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5597,7 +5611,7 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5605,10 +5619,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5616,7 +5630,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5631,32 +5645,32 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>72</v>
@@ -5668,13 +5682,11 @@
         <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>72</v>
@@ -5692,7 +5704,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5707,7 +5719,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5715,10 +5727,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5741,18 +5753,20 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>72</v>
       </c>
@@ -5764,7 +5778,7 @@
         <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>72</v>
@@ -5800,7 +5814,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5815,7 +5829,7 @@
         <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5823,10 +5837,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5849,16 +5863,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5872,7 +5886,7 @@
         <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>72</v>
@@ -5908,7 +5922,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5920,10 +5934,10 @@
         <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5931,10 +5945,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5957,16 +5971,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6016,7 +6030,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -6028,10 +6042,10 @@
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -6039,14 +6053,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>72</v>
       </c>
@@ -6067,18 +6079,18 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>72</v>
       </c>
@@ -6126,35 +6138,37 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>221</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>72</v>
       </c>
@@ -6172,19 +6186,21 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>72</v>
       </c>
@@ -6232,44 +6248,44 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>72</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -6281,17 +6297,15 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>72</v>
@@ -6328,34 +6342,34 @@
         <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6363,46 +6377,44 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>72</v>
       </c>
@@ -6426,46 +6438,46 @@
         <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>237</v>
+        <v>94</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6473,10 +6485,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6484,7 +6496,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6493,32 +6505,32 @@
         <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>72</v>
@@ -6536,11 +6548,13 @@
         <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>72</v>
@@ -6558,7 +6572,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6573,7 +6587,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6581,10 +6595,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6592,7 +6606,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6607,32 +6621,32 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>72</v>
@@ -6644,13 +6658,11 @@
         <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>72</v>
@@ -6668,7 +6680,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6683,7 +6695,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6691,10 +6703,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6717,18 +6729,20 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>72</v>
       </c>
@@ -6740,7 +6754,7 @@
         <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>72</v>
@@ -6776,7 +6790,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6791,7 +6805,7 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6799,10 +6813,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6825,16 +6839,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6848,7 +6862,7 @@
         <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>72</v>
@@ -6884,7 +6898,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6896,10 +6910,10 @@
         <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6907,10 +6921,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6933,16 +6947,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6992,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -7004,10 +7018,10 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -7015,10 +7029,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7035,22 +7049,22 @@
         <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7076,13 +7090,13 @@
         <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>72</v>
@@ -7100,7 +7114,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -7112,21 +7126,21 @@
         <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>301</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7143,22 +7157,22 @@
         <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7184,13 +7198,13 @@
         <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>72</v>
@@ -7208,7 +7222,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -7223,10 +7237,10 @@
         <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46">
@@ -7257,7 +7271,7 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>309</v>
@@ -7292,13 +7306,13 @@
         <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -7331,18 +7345,18 @@
         <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>72</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7353,7 +7367,7 @@
         <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>72</v>
@@ -7362,23 +7376,21 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O47" t="s" s="2">
         <v>317</v>
       </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>72</v>
       </c>
@@ -7426,13 +7438,13 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>92</v>
@@ -7441,7 +7453,7 @@
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7449,10 +7461,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7463,7 +7475,7 @@
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -7472,22 +7484,22 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7536,13 +7548,13 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>92</v>
@@ -7551,7 +7563,7 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7559,10 +7571,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7585,16 +7597,16 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>327</v>
@@ -7622,13 +7634,13 @@
         <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>72</v>
@@ -7646,7 +7658,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7661,18 +7673,18 @@
         <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7695,18 +7707,20 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>72</v>
       </c>
@@ -7730,11 +7744,13 @@
         <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>72</v>
@@ -7752,13 +7768,13 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>92</v>
@@ -7767,10 +7783,10 @@
         <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="51">
@@ -7798,18 +7814,20 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>72</v>
@@ -7834,13 +7852,11 @@
         <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>72</v>
+        <v>341</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>72</v>
@@ -7870,13 +7886,13 @@
         <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>341</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>342</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52">
@@ -7907,13 +7923,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7964,22 +7980,22 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>72</v>
+        <v>347</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7987,10 +8003,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7998,10 +8014,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -8013,13 +8029,13 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8058,34 +8074,34 @@
         <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -8093,23 +8109,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>72</v>
@@ -8121,13 +8135,13 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>349</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8166,16 +8180,16 @@
         <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>110</v>
@@ -8201,20 +8215,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="C55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8229,13 +8243,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8309,13 +8323,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>72</v>
@@ -8337,13 +8351,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8417,18 +8431,20 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8440,20 +8456,18 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>72</v>
@@ -8478,13 +8492,13 @@
         <v>72</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>361</v>
+        <v>72</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>362</v>
+        <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>72</v>
@@ -8502,22 +8516,22 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>363</v>
+        <v>110</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>364</v>
+        <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>72</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8525,10 +8539,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8536,7 +8550,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8551,20 +8565,18 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>72</v>
       </c>
@@ -8588,13 +8600,13 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>72</v>
+        <v>367</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>72</v>
+        <v>368</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -8612,7 +8624,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8621,13 +8633,13 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>370</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8635,10 +8647,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8646,7 +8658,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8655,25 +8667,25 @@
         <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>72</v>
@@ -8698,13 +8710,13 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>378</v>
+        <v>72</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>379</v>
+        <v>72</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>72</v>
@@ -8722,7 +8734,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8737,7 +8749,7 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8745,10 +8757,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8765,24 +8777,26 @@
         <v>72</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>72</v>
       </c>
@@ -8806,13 +8820,13 @@
         <v>72</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>72</v>
+        <v>384</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>72</v>
@@ -8830,7 +8844,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8845,7 +8859,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8879,16 +8893,16 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8938,7 +8952,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8950,10 +8964,10 @@
         <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>392</v>
+        <v>100</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8961,10 +8975,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8984,10 +8998,10 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>395</v>
@@ -8996,11 +9010,9 @@
         <v>396</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
@@ -9048,7 +9060,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -9060,10 +9072,10 @@
         <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9071,10 +9083,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9097,16 +9109,20 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>97</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
       </c>
@@ -9154,7 +9170,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -9163,13 +9179,13 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9177,21 +9193,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>72</v>
@@ -9203,17 +9219,15 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -9250,34 +9264,34 @@
         <v>72</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9285,23 +9299,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -9313,15 +9325,17 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>404</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>405</v>
+        <v>104</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>72</v>
@@ -9358,16 +9372,16 @@
         <v>72</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>110</v>
@@ -9393,12 +9407,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>72</v>
       </c>
@@ -9419,13 +9435,13 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>96</v>
+        <v>410</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>97</v>
+        <v>411</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>98</v>
+        <v>412</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9476,22 +9492,22 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9499,10 +9515,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9513,7 +9529,7 @@
         <v>73</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>72</v>
@@ -9525,13 +9541,13 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9570,34 +9586,34 @@
         <v>72</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9605,10 +9621,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9616,10 +9632,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>72</v>
@@ -9631,24 +9647,22 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>188</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>72</v>
@@ -9678,34 +9692,34 @@
         <v>72</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>417</v>
+        <v>110</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9713,10 +9727,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9724,7 +9738,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9739,22 +9753,24 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>72</v>
@@ -9772,43 +9788,43 @@
         <v>72</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="Z69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AA69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="AG69" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>94</v>
@@ -9819,16 +9835,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9847,17 +9861,15 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>72</v>
@@ -9882,13 +9894,13 @@
         <v>72</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>72</v>
+        <v>428</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -9906,19 +9918,19 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>94</v>
@@ -9929,13 +9941,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>102</v>
@@ -9957,13 +9969,13 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>106</v>
@@ -10039,14 +10051,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10059,26 +10073,24 @@
         <v>72</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>158</v>
+        <v>436</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>72</v>
       </c>
@@ -10090,7 +10102,7 @@
         <v>72</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>72</v>
@@ -10102,13 +10114,13 @@
         <v>72</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>437</v>
+        <v>72</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>438</v>
+        <v>72</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -10126,22 +10138,22 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>110</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>381</v>
+        <v>94</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10149,10 +10161,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10169,24 +10181,26 @@
         <v>72</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>72</v>
       </c>
@@ -10198,43 +10212,43 @@
         <v>72</v>
       </c>
       <c r="T73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="U73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y73" t="s" s="2">
+      <c r="AA73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -10249,7 +10263,7 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -10257,10 +10271,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10283,20 +10297,18 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>452</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>72</v>
       </c>
@@ -10308,43 +10320,43 @@
         <v>72</v>
       </c>
       <c r="T74" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -10359,7 +10371,7 @@
         <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10367,10 +10379,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10381,7 +10393,7 @@
         <v>73</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>72</v>
@@ -10396,15 +10408,17 @@
         <v>96</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N75" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>72</v>
       </c>
@@ -10458,7 +10472,7 @@
         <v>73</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>92</v>
@@ -10489,7 +10503,7 @@
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10498,18 +10512,20 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>97</v>
+        <v>463</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>72</v>
@@ -10522,7 +10538,7 @@
         <v>72</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>72</v>
+        <v>465</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>72</v>
@@ -10558,22 +10574,22 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>99</v>
+        <v>466</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>100</v>
+        <v>467</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10581,21 +10597,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>72</v>
@@ -10607,17 +10623,15 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>72</v>
@@ -10654,34 +10668,34 @@
         <v>72</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10689,14 +10703,12 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>102</v>
       </c>
@@ -10717,13 +10729,13 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>104</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>467</v>
+        <v>105</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>106</v>
@@ -10764,16 +10776,16 @@
         <v>72</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>110</v>
@@ -10791,7 +10803,7 @@
         <v>111</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>468</v>
+        <v>94</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10799,13 +10811,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="C79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>102</v>
@@ -10827,13 +10839,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>106</v>
@@ -10901,7 +10913,7 @@
         <v>111</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10909,13 +10921,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>102</v>
@@ -10937,13 +10949,13 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>106</v>
@@ -11011,7 +11023,7 @@
         <v>111</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -11019,13 +11031,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>102</v>
@@ -11047,13 +11059,13 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="M81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>106</v>
@@ -11121,7 +11133,7 @@
         <v>111</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11129,16 +11141,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11157,15 +11169,17 @@
         <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>72</v>
@@ -11229,7 +11243,7 @@
         <v>111</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11237,12 +11251,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>72</v>
       </c>
@@ -11251,7 +11267,7 @@
         <v>73</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>72</v>
@@ -11263,13 +11279,13 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>96</v>
+        <v>492</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>97</v>
+        <v>491</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>98</v>
+        <v>493</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11320,22 +11336,22 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>100</v>
+        <v>494</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11343,21 +11359,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>72</v>
@@ -11369,17 +11385,15 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>72</v>
@@ -11416,34 +11430,34 @@
         <v>72</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11451,21 +11465,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>72</v>
@@ -11477,16 +11491,16 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>414</v>
+        <v>105</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>415</v>
+        <v>106</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11494,7 +11508,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>72</v>
@@ -11524,31 +11538,31 @@
         <v>72</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>417</v>
+        <v>110</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>94</v>
@@ -11559,10 +11573,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11570,7 +11584,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -11585,22 +11599,24 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>72</v>
+        <v>501</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>72</v>
@@ -11630,29 +11646,31 @@
         <v>72</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AC86" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>499</v>
+        <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11663,20 +11681,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>80</v>
@@ -11694,10 +11710,10 @@
         <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11724,31 +11740,29 @@
         <v>72</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>502</v>
+        <v>72</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>503</v>
+        <v>72</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>72</v>
+        <v>505</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11771,23 +11785,23 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>72</v>
@@ -11799,17 +11813,15 @@
         <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>506</v>
+        <v>96</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>507</v>
+        <v>426</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>72</v>
@@ -11834,13 +11846,13 @@
         <v>72</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>72</v>
+        <v>508</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>72</v>
+        <v>509</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>72</v>
@@ -11858,22 +11870,22 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>509</v>
+        <v>94</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11884,7 +11896,7 @@
         <v>510</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>511</v>
@@ -11912,10 +11924,10 @@
         <v>512</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>106</v>
@@ -11983,7 +11995,7 @@
         <v>111</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11991,21 +12003,23 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="D90" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>72</v>
@@ -12017,15 +12031,17 @@
         <v>72</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>96</v>
+        <v>518</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>72</v>
@@ -12047,7 +12063,7 @@
         <v>72</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>517</v>
+        <v>72</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>72</v>
@@ -12074,22 +12090,22 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>518</v>
+        <v>110</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>72</v>
+        <v>520</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12097,14 +12113,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>520</v>
+        <v>72</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12120,20 +12136,18 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>72</v>
@@ -12146,16 +12160,16 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W91" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>72</v>
@@ -12191,13 +12205,13 @@
         <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>525</v>
+        <v>72</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12205,14 +12219,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12234,13 +12248,13 @@
         <v>96</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>530</v>
+        <v>303</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12254,7 +12268,7 @@
         <v>72</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>72</v>
@@ -12290,7 +12304,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -12305,7 +12319,7 @@
         <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12313,14 +12327,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12342,13 +12356,13 @@
         <v>96</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12362,7 +12376,7 @@
         <v>72</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>72</v>
+        <v>537</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>72</v>
@@ -12456,7 +12470,7 @@
         <v>543</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12470,43 +12484,43 @@
         <v>72</v>
       </c>
       <c r="T94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
@@ -12521,7 +12535,7 @@
         <v>93</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12529,14 +12543,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>72</v>
+        <v>547</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12564,7 +12578,7 @@
         <v>549</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>550</v>
+        <v>303</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12578,7 +12592,7 @@
         <v>72</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>72</v>
+        <v>550</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>72</v>
@@ -12663,7 +12677,7 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>554</v>
@@ -12672,11 +12686,9 @@
         <v>555</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O96" t="s" s="2">
         <v>556</v>
       </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>72</v>
       </c>
@@ -12688,43 +12700,43 @@
         <v>72</v>
       </c>
       <c r="T96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF96" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>73</v>
@@ -12736,10 +12748,10 @@
         <v>92</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>392</v>
+        <v>558</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12773,7 +12785,7 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>560</v>
@@ -12782,7 +12794,7 @@
         <v>561</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>562</v>
@@ -12798,7 +12810,7 @@
         <v>72</v>
       </c>
       <c r="T97" t="s" s="2">
-        <v>72</v>
+        <v>563</v>
       </c>
       <c r="U97" t="s" s="2">
         <v>72</v>
@@ -12810,31 +12822,31 @@
         <v>72</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>563</v>
+        <v>72</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12846,21 +12858,21 @@
         <v>92</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>566</v>
+        <v>398</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>330</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12880,20 +12892,22 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O98" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>72</v>
@@ -12918,13 +12932,13 @@
         <v>72</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>72</v>
+        <v>569</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>72</v>
+        <v>570</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>72</v>
@@ -12942,7 +12956,7 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>73</v>
@@ -12957,18 +12971,18 @@
         <v>93</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12991,16 +13005,18 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>96</v>
+        <v>573</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>97</v>
+        <v>574</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>98</v>
+        <v>575</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>72</v>
       </c>
@@ -13048,7 +13064,7 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>99</v>
+        <v>572</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
@@ -13057,13 +13073,13 @@
         <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>100</v>
+        <v>577</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13071,10 +13087,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13082,10 +13098,10 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>72</v>
@@ -13097,13 +13113,13 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13142,34 +13158,34 @@
         <v>72</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13177,14 +13193,12 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>72</v>
       </c>
@@ -13205,13 +13219,13 @@
         <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>577</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>578</v>
+        <v>188</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>570</v>
+        <v>189</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13250,16 +13264,16 @@
         <v>72</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>110</v>
@@ -13285,18 +13299,20 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="D102" t="s" s="2">
-        <v>580</v>
+        <v>72</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>74</v>
@@ -13305,26 +13321,22 @@
         <v>72</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>103</v>
+        <v>582</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>581</v>
+        <v>188</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>72</v>
       </c>
@@ -13372,7 +13384,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>583</v>
+        <v>110</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13387,7 +13399,7 @@
         <v>111</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13395,44 +13407,46 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>72</v>
+        <v>584</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="N103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>72</v>
       </c>
@@ -13480,22 +13494,22 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>589</v>
+        <v>94</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13503,10 +13517,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13529,16 +13543,16 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13588,7 +13602,7 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -13603,7 +13617,7 @@
         <v>93</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13611,10 +13625,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13622,7 +13636,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>80</v>
@@ -13637,16 +13651,16 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13696,10 +13710,10 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>80</v>
@@ -13711,7 +13725,7 @@
         <v>93</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13719,10 +13733,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13742,23 +13756,21 @@
         <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>276</v>
+        <v>589</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>72</v>
       </c>
@@ -13806,7 +13818,7 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13818,10 +13830,10 @@
         <v>92</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -13829,10 +13841,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13852,22 +13864,22 @@
         <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>72</v>
@@ -13916,7 +13928,7 @@
         <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
@@ -13928,10 +13940,10 @@
         <v>92</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -13939,10 +13951,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13953,7 +13965,7 @@
         <v>73</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>72</v>
@@ -13965,18 +13977,20 @@
         <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>72</v>
       </c>
@@ -14024,22 +14038,22 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14047,10 +14061,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14061,7 +14075,7 @@
         <v>73</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>72</v>
@@ -14073,15 +14087,17 @@
         <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>96</v>
+        <v>573</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>97</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>72</v>
@@ -14130,22 +14146,22 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>99</v>
+        <v>613</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>100</v>
+        <v>617</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14153,21 +14169,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>72</v>
@@ -14179,17 +14195,15 @@
         <v>72</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>72</v>
@@ -14226,34 +14240,34 @@
         <v>72</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14261,14 +14275,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>580</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14281,26 +14295,24 @@
         <v>72</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>581</v>
+        <v>104</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>582</v>
+        <v>105</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O111" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>72</v>
       </c>
@@ -14336,19 +14348,19 @@
         <v>72</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>583</v>
+        <v>110</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -14371,14 +14383,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>72</v>
+        <v>584</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14391,24 +14403,26 @@
         <v>72</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>72</v>
       </c>
@@ -14432,13 +14446,13 @@
         <v>72</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>620</v>
+        <v>72</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>621</v>
+        <v>72</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>72</v>
@@ -14456,7 +14470,7 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
@@ -14468,10 +14482,10 @@
         <v>92</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>613</v>
+        <v>94</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14479,10 +14493,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14493,7 +14507,7 @@
         <v>73</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>72</v>
@@ -14505,15 +14519,17 @@
         <v>72</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L113" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>72</v>
@@ -14538,13 +14554,13 @@
         <v>72</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>72</v>
+        <v>624</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>72</v>
+        <v>625</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>72</v>
@@ -14562,13 +14578,13 @@
         <v>72</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>92</v>
@@ -14577,7 +14593,7 @@
         <v>93</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -14683,7 +14699,7 @@
         <v>93</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>72</v>
@@ -14717,13 +14733,13 @@
         <v>72</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14789,7 +14805,7 @@
         <v>93</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>72</v>
@@ -14797,10 +14813,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14823,17 +14839,15 @@
         <v>72</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>96</v>
+        <v>631</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>72</v>
@@ -14882,7 +14896,7 @@
         <v>72</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>73</v>
@@ -14897,7 +14911,7 @@
         <v>93</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>100</v>
+        <v>617</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>72</v>
@@ -14905,10 +14919,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14919,7 +14933,7 @@
         <v>73</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>72</v>
@@ -14931,7 +14945,7 @@
         <v>72</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>637</v>
+        <v>96</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>638</v>
@@ -14940,11 +14954,9 @@
         <v>639</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>72</v>
       </c>
@@ -14992,24 +15004,134 @@
         <v>72</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="AK117" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AL117" t="s" s="2">
+      <c r="L118" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="627">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créé dans le cadre du ROR pour décrire les moyens qui peuvent être mis en œuvre pour réaliser la prestation</t>
+    <t>Profil créé dans le cadre du ROR pour décrire l'espace disposant d'un ensemble de ressources pour réaliser une offre.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -683,7 +683,7 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour représenter le code officiel géographique (COG) de la commune dans laquelle le lieu est situé.</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -1402,6 +1402,9 @@
 </t>
   </si>
   <si>
+    <t>Extension créée dans le cadre du ROR</t>
+  </si>
+  <si>
     <t>Location.address.line.extension:careOf</t>
   </si>
   <si>
@@ -1521,17 +1524,10 @@
     <t>Location.address.line.extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1550,10 +1546,7 @@
     <t>valueString</t>
   </si>
   <si>
-    <t>JDV_J103-TypeVoie-RASS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
   </si>
   <si>
     <t>Location.address.line.extension:streetNameBase</t>
@@ -2294,7 +2287,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2558,7 +2551,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>80</v>
@@ -3529,7 +3522,7 @@
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
@@ -10039,7 +10032,7 @@
         <v>188</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10113,13 +10106,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>72</v>
@@ -10141,13 +10134,13 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10213,7 +10206,7 @@
         <v>111</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -10221,13 +10214,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>72</v>
@@ -10249,13 +10242,13 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10321,7 +10314,7 @@
         <v>111</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10329,13 +10322,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>72</v>
@@ -10357,13 +10350,13 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="M75" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10429,7 +10422,7 @@
         <v>111</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10437,13 +10430,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>72</v>
@@ -10465,13 +10458,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10537,7 +10530,7 @@
         <v>111</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10545,13 +10538,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>72</v>
@@ -10573,13 +10566,13 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10645,7 +10638,7 @@
         <v>111</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10653,10 +10646,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10759,10 +10752,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10867,10 +10860,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10896,13 +10889,13 @@
         <v>124</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10910,7 +10903,7 @@
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>72</v>
@@ -10952,7 +10945,7 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -10975,10 +10968,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11001,7 +10994,7 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>482</v>
+        <v>96</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>483</v>
@@ -11034,27 +11027,29 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB81" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AF81" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -11077,20 +11072,20 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11140,11 +11135,9 @@
       <c r="X82" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>72</v>
@@ -11162,7 +11155,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -11185,13 +11178,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>72</v>
@@ -11213,13 +11206,13 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11285,7 +11278,7 @@
         <v>111</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11293,13 +11286,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>440</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>72</v>
@@ -11321,13 +11314,13 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11393,7 +11386,7 @@
         <v>111</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11401,10 +11394,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11430,10 +11423,10 @@
         <v>96</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11457,7 +11450,7 @@
         <v>72</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>72</v>
@@ -11484,7 +11477,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11507,14 +11500,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11536,10 +11529,10 @@
         <v>96</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>303</v>
@@ -11556,7 +11549,7 @@
         <v>72</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>72</v>
@@ -11592,7 +11585,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11607,7 +11600,7 @@
         <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11615,14 +11608,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11644,13 +11637,13 @@
         <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11664,7 +11657,7 @@
         <v>72</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>72</v>
@@ -11700,7 +11693,7 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11715,7 +11708,7 @@
         <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11723,14 +11716,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11752,10 +11745,10 @@
         <v>96</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>303</v>
@@ -11808,7 +11801,7 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
@@ -11823,7 +11816,7 @@
         <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11831,14 +11824,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11860,10 +11853,10 @@
         <v>96</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>303</v>
@@ -11880,7 +11873,7 @@
         <v>72</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>72</v>
@@ -11916,7 +11909,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11931,7 +11924,7 @@
         <v>93</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11939,10 +11932,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11968,13 +11961,13 @@
         <v>96</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12024,7 +12017,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -12039,7 +12032,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12047,10 +12040,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12076,16 +12069,16 @@
         <v>273</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>72</v>
@@ -12098,7 +12091,7 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>72</v>
@@ -12134,7 +12127,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
@@ -12157,10 +12150,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12186,16 +12179,16 @@
         <v>246</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>340</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>72</v>
@@ -12223,10 +12216,10 @@
         <v>149</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>72</v>
@@ -12244,7 +12237,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -12259,7 +12252,7 @@
         <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>336</v>
@@ -12267,10 +12260,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12293,17 +12286,17 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>72</v>
@@ -12352,7 +12345,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
@@ -12367,7 +12360,7 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12375,10 +12368,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12481,10 +12474,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12589,13 +12582,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B96" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>72</v>
@@ -12617,7 +12610,7 @@
         <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>188</v>
@@ -12697,14 +12690,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -12726,10 +12719,10 @@
         <v>103</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>106</v>
@@ -12784,7 +12777,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12807,10 +12800,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12833,16 +12826,16 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12892,7 +12885,7 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -12907,7 +12900,7 @@
         <v>93</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12915,10 +12908,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12941,16 +12934,16 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13000,7 +12993,7 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13015,7 +13008,7 @@
         <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13023,10 +13016,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13049,16 +13042,16 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13108,7 +13101,7 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
@@ -13123,7 +13116,7 @@
         <v>93</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13131,10 +13124,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13160,16 +13153,16 @@
         <v>282</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>72</v>
@@ -13218,7 +13211,7 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
@@ -13233,7 +13226,7 @@
         <v>287</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13241,10 +13234,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13267,19 +13260,19 @@
         <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>72</v>
@@ -13328,7 +13321,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13343,7 +13336,7 @@
         <v>287</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13351,10 +13344,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13377,16 +13370,16 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13436,7 +13429,7 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
@@ -13451,7 +13444,7 @@
         <v>93</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13459,10 +13452,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13565,10 +13558,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13673,14 +13666,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13702,10 +13695,10 @@
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>106</v>
@@ -13760,7 +13753,7 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13783,10 +13776,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13812,10 +13805,10 @@
         <v>164</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>303</v>
@@ -13847,10 +13840,10 @@
         <v>156</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>72</v>
@@ -13868,7 +13861,7 @@
         <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
@@ -13883,7 +13876,7 @@
         <v>93</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -13891,10 +13884,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13917,13 +13910,13 @@
         <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13974,7 +13967,7 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
@@ -13989,7 +13982,7 @@
         <v>93</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -13997,10 +13990,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14023,13 +14016,13 @@
         <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14080,7 +14073,7 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
@@ -14095,7 +14088,7 @@
         <v>93</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14103,10 +14096,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14129,13 +14122,13 @@
         <v>72</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14186,7 +14179,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -14201,7 +14194,7 @@
         <v>93</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14209,10 +14202,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14238,10 +14231,10 @@
         <v>96</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>303</v>
@@ -14294,7 +14287,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -14317,10 +14310,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14343,19 +14336,19 @@
         <v>72</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="N112" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>72</v>
@@ -14404,7 +14397,7 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
@@ -14419,7 +14412,7 @@
         <v>287</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
